--- a/数据传输室财务统计.xlsx
+++ b/数据传输室财务统计.xlsx
@@ -7,17 +7,65 @@
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2013年" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>室内活动经费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郎代志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收支备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据传输室财务统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="&quot;￥&quot;#,##0.0"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,16 +81,31 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -50,15 +113,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -354,12 +490,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17" style="4" customWidth="1"/>
+    <col min="5" max="6" width="17" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="22.5">
+      <c r="A1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" ht="22.5">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>20131014</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>700</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
